--- a/archive/Sorting/07-28Sorting Morning shift.xlsx
+++ b/archive/Sorting/07-28Sorting Morning shift.xlsx
@@ -1369,16 +1369,16 @@
         <v>27</v>
       </c>
       <c r="C2">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="D2">
         <v>238</v>
       </c>
       <c r="E2">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="F2">
-        <v>572</v>
+        <v>691</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1389,16 +1389,16 @@
         <v>28</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="D3">
         <v>454</v>
       </c>
       <c r="E3">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="F3">
-        <v>774</v>
+        <v>956</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1409,16 +1409,16 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>239</v>
+        <v>462</v>
       </c>
       <c r="D4">
         <v>711</v>
       </c>
       <c r="E4">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="F4">
-        <v>1448</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1429,16 +1429,16 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>237</v>
+        <v>414</v>
       </c>
       <c r="D5">
         <v>550</v>
       </c>
       <c r="E5">
-        <v>362</v>
+        <v>474</v>
       </c>
       <c r="F5">
-        <v>1149</v>
+        <v>1438</v>
       </c>
     </row>
   </sheetData>
